--- a/biology/Zoologie/Cypraedia/Cypraedia.xlsx
+++ b/biology/Zoologie/Cypraedia/Cypraedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypraedia est un genre éteint de mollusques gastéropodes marins de l'ordre des Littorinimorpha et de la famille des Pediculariidae.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (4 septembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (4 septembre 2019) :
 †Cypraedia clathrata (Tate, 1892)
 †Cypraedia conigera (K. Martin, 1914)
 †Cypraedia durandae Dolin &amp; Aguerre, 2018
-†Cypraedia elegans (G. B. Sowerby I, 1823)[3]
+†Cypraedia elegans (G. B. Sowerby I, 1823)
 †Cypraedia feuilletaui (K. Martin, 1912)
 †Cypraedia fragilis Dolin &amp; Aguerre, 2018
 †Cypraedia gizaensis Abbass, 1967
@@ -529,7 +543,7 @@
 Noms en synonymie
 sous-genre †Cypraedia (Eucypraedia) Schilder, 1939, un synonyme de †Eucypraedia Schilder, 1939
 †Cypraedia cancellata Swainson, 1840, un synonyme de †Cypraedia elegans (G. B. Sowerby I, 1823)
-Selon Paleobiology Database                   (4 septembre 2019)[4] :
+Selon Paleobiology Database                   (4 septembre 2019) :
 sous-genre †Cypraedia (Cypraedia) Swainson, 1840
 †Cypraedia (Cypraedia) aplisiopsis
 †Cypraedia (Cypraedia) fenestralis
@@ -543,7 +557,7 @@
 †Cypraedia blaiaensis
 †Cypraedia carmenensis
 †Cypraedia chira
-†Cypraedia elegans Defrance[5], 1826 (syn. Cypraea (Cyprovula) elegans, Cypraea elegans G. B. Sowerby I, 1823, Cypraeovula elegans) - Éocène d'Allemagne, Bulgarie, Croatie, France et Italie (appelée Porcelaine élégante, par Deshayes (lien)
+†Cypraedia elegans Defrance, 1826 (syn. Cypraea (Cyprovula) elegans, Cypraea elegans G. B. Sowerby I, 1823, Cypraeovula elegans) - Éocène d'Allemagne, Bulgarie, Croatie, France et Italie (appelée Porcelaine élégante, par Deshayes (lien)
 †Cypraedia fenestralis
 †Cypraedia gilberti
 †Cypraedia girauxi
